--- a/fifth_pass/welfare_results/3282/analysis_results/f_change_3282.xlsx
+++ b/fifth_pass/welfare_results/3282/analysis_results/f_change_3282.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Sheep</t>
   </si>
   <si>
-    <t xml:space="preserve">Swine / pigs</t>
+    <t xml:space="preserve">Pigs</t>
   </si>
   <si>
     <t xml:space="preserve">Turkeys</t>
